--- a/meta/en/12-8-1.xlsx
+++ b/meta/en/12-8-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="Workbook________" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист 1" sheetId="2" r:id="rId1"/>
@@ -100,9 +100,6 @@
     <t>12.8. By 2030, ensure that people everywhere have the relevant information and awareness for sustainable development and lifestyles in harmony with nature</t>
   </si>
   <si>
-    <t>12.8.1 Extent to which (i) global citizenship education and (ii) education for sustainable development (including climate change education) are mainstreamed in (a) national education policies; (b) curricula; (c) teacher education; and (d) student assessment</t>
-  </si>
-  <si>
     <t>Ministry of Education and Science of the Kyrgyz Republic</t>
   </si>
   <si>
@@ -132,6 +129,9 @@
   <si>
     <t>The Kyrgyz Republic SDG National Reporting Platform: https://sustainabledevelopment-kyrgyzstan.github.io
 The State Educational Standard for General School Education (No. 403 of July 21, 2014), subject standards. The Kyrgyz Government Decree on Approval of Public Health Acts No. 201 dated April 11, 2016. The Kyrgyz Government Decree on Amendments to Some Decisions of the Kyrgyz Republic Government on Safe Educational Environment No. 295 dated June 17, 2019.</t>
+  </si>
+  <si>
+    <t>12.8.1 Extent to which (i) global citizenship education and (ii) education for sustainable development are mainstreamed in (a) national education policies; (b) curricula; (c) teacher education; and (d) student assessment</t>
   </si>
 </sst>
 </file>
@@ -553,7 +553,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,7 +590,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -604,7 +604,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -612,7 +612,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -620,7 +620,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -628,7 +628,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -636,7 +636,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -650,7 +650,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -658,7 +658,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -666,7 +666,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -710,7 +710,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -742,7 +742,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
